--- a/src/main/resources/SZ002385.xlsx
+++ b/src/main/resources/SZ002385.xlsx
@@ -64,100 +64,590 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20191213</t>
+          <t>20150907</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>370.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20200108</t>
+          <t>20150915</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20200204</t>
+          <t>20151126</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>455.0</v>
+        <v>844.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200217</t>
+          <t>20160127</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20200228</t>
+          <t>20160303</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>641.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20200306</t>
+          <t>20160311</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20200317</t>
+          <t>20160324</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.0</v>
+        <v>758.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20200511</t>
+          <t>20160428</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1004.0</v>
+        <v>631.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20200612</t>
+          <t>20160516</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>757.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20160615</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>707.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20160621</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>782.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20160627</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>711.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20160719</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>814.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20160801</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>720.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20160809</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>787.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20160926</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>672.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20161208</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>721.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20170119</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>579.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20170206</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>624.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20170220</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20170308</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>620.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20170323</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>585.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20170327</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>634.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20170511</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>496.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20170706</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>617.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20170727</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>546.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20171122</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20171225</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>546.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20180126</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>656.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20180209</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>554.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20180301</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20180503</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>484.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20180601</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>522.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20180911</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>293.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20180926</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>339.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20181012</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>274.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20181203</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>329.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20190104</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>276.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20190124</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>310.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>284.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20190423</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>793.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20190715</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>438.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20190726</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>536.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20190815</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>433.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>561.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20190926</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>394.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20191030</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>494.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20191118</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>389.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20191202</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20191213</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20200108</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>779.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20200204</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>455.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20200217</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>793.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20200228</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>641.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20200306</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>916.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20200317</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>628.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20200511</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1004.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20200612</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>757.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>20200709</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B59" t="n">
         <v>1037.0</v>
       </c>
     </row>
